--- a/biology/Botanique/Cerisier/Cerisier.xlsx
+++ b/biology/Botanique/Cerisier/Cerisier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme cerisier est un nom vernaculaire générique qui désigne en français plusieurs espèces d'arbres du genre Prunus de la famille des Rosaceae. Ce sont soit des arbres fruitiers donnant des cerises, soit des arbres ornementaux originaires d'Asie de l'Est (Chine, Japon) plantés uniquement pour leurs fleurs et dont les fruits sont insignifiants.
-Dans la taxonomie botanique[1], ils font partie d'un taxon assez vaste, rassemblés dans le sous-genre Cerasus,
+Dans la taxonomie botanique, ils font partie d'un taxon assez vaste, rassemblés dans le sous-genre Cerasus,
 les cerisiers vrais (section Cerasus, ou Eucerasus) : 39 espèces comme Prunus avium (le merisier) ou Prunus cerasus (le griottier), Prunus serrulata cerisier du Japon
 les lauriers-cerises (section Laurocerasus) : 29 espèces comme Prunus padus cerisier à grappes, Prunus serotina le cerisier tardif
 Les cerisiers à fruits sont cultivés depuis la plus haute Antiquité, en Europe (en Grèce, Empire romain) et en Anatolie, Caucase et un peu en Chine (pour Prunus pseudocerasus).
@@ -517,31 +529,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-Le terme de « cerise » vient du latin vulgaire *cerĕsia, « cerise », neutre pluriel considéré comme fém. sing., du bas latin ceresium, emprunté au grec κεράσιον / kerásion « cerise », lui-même dérivé de κέρασος / kérasos (ou κερασός / kerasós) « cerisier », d'après la ville grecque antique de Kerasos. Le terme « cerisier » dérive par suffixation de -ier* à « cerise ».
-Noms français et noms scientifiques correspondants
-Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[Note 1] en français. 
-Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Cerisier acide - Prunus cerasus L. , 1753 et Prunus cerasus var. acida (Ehrh.) Willd. , 1796[2]
-Cerisier aigre -  voir Cerisier acide[2]
-Cerisier d'automne (au Canada) - voir Cerisier noir[2],[3]
-Cerisier des bois - Prunus avium (L.) L. , 1755[2]
-Cerisier boréal - Prunus padus subsp. borealis Nyman, 1878[2]
-Cerisier des collines - voir Cerisier du Japon[4]
-Cerisier de Corée - Prunus japonica Thunb. , 1784[2]
-Cerisier à fleurs japonais - voir Cerisier du Japon[2]
-Cerisier à grappes - Prunus padus L. , 1753[2],[5]
-Cerisier du Japon - Prunus serrulata Lindl. , 1830[2]
-Cerisier de Mahaleb - voir Cerisier de Sainte Lucie[5]
-Cerisier noir - Prunus serotina Ehrh. , 1788[2]
-Cerisier des oiseaux - voir Cerisier des bois[2],[5]
-Cerisier prostré - Prunus prostrata Labill. , 1791[2]
-Cerisier putiet - voir Cerisier à grappes[2]
-Cerisier de Sainte Lucie - Prunus mahaleb L. , 1753[4],[2],[5]
-Cerisier sauvage - voir Cerisier des bois[2],[5]
-Cerisier tardif - voir Cerisier noir[2]
-Cerisier de Virginie - Prunus virginiana L. , 1753[2]
-Cerisier vrai - sous-genre Cerasus sp. [5]</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de « cerise » vient du latin vulgaire *cerĕsia, « cerise », neutre pluriel considéré comme fém. sing., du bas latin ceresium, emprunté au grec κεράσιον / kerásion « cerise », lui-même dérivé de κέρασος / kérasos (ou κερασός / kerasós) « cerisier », d'après la ville grecque antique de Kerasos. Le terme « cerisier » dérive par suffixation de -ier* à « cerise ».
+</t>
         </is>
       </c>
     </row>
@@ -566,14 +561,73 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms français et noms scientifiques correspondants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[Note 1] en français. 
+Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
+Cerisier acide - Prunus cerasus L. , 1753 et Prunus cerasus var. acida (Ehrh.) Willd. , 1796
+Cerisier aigre -  voir Cerisier acide
+Cerisier d'automne (au Canada) - voir Cerisier noir,
+Cerisier des bois - Prunus avium (L.) L. , 1755
+Cerisier boréal - Prunus padus subsp. borealis Nyman, 1878
+Cerisier des collines - voir Cerisier du Japon
+Cerisier de Corée - Prunus japonica Thunb. , 1784
+Cerisier à fleurs japonais - voir Cerisier du Japon
+Cerisier à grappes - Prunus padus L. , 1753,
+Cerisier du Japon - Prunus serrulata Lindl. , 1830
+Cerisier de Mahaleb - voir Cerisier de Sainte Lucie
+Cerisier noir - Prunus serotina Ehrh. , 1788
+Cerisier des oiseaux - voir Cerisier des bois,
+Cerisier prostré - Prunus prostrata Labill. , 1791
+Cerisier putiet - voir Cerisier à grappes
+Cerisier de Sainte Lucie - Prunus mahaleb L. , 1753
+Cerisier sauvage - voir Cerisier des bois,
+Cerisier tardif - voir Cerisier noir
+Cerisier de Virginie - Prunus virginiana L. , 1753
+Cerisier vrai - sous-genre Cerasus sp. </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cerisier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Cerisiers à fruits de table</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces de cerisiers donnent des fruits plus ou moins acides, gros ou sucrés.
 Si les cerises sauvages entrent parfois dans la composition de liqueurs, confitures et autres plat locaux, les arboriculteurs ont développé des variétés à plus gros fruits, destinés à être consommés crus ou dans des préparations culinaires variées.
-La classification des diverses espèces de cerisiers et de leur origine botanique est un sujet assez débattu[6]. Il semble admis de nos jours que deux espèces botaniques, P. avium et P. cerasus, sont à l'origine de la plupart des espèces et variétés cultivées pour leurs fruits :
+La classification des diverses espèces de cerisiers et de leur origine botanique est un sujet assez débattu. Il semble admis de nos jours que deux espèces botaniques, P. avium et P. cerasus, sont à l'origine de la plupart des espèces et variétés cultivées pour leurs fruits :
 Prunus avium (L.) L., le cerisier des oiseaux, ou merisier, à l'origine des variétés de cerises douces. C'est une espèce diploïde (2n=16), croissant à l'état sauvage en Europe (dont la France), dans le Caucase et en Turquie, Iran, Afghanistan. Ses fruits, nettement plus petits que des cerises cultivées, servent à préparer une eau-de-vie connue sous le nom de kirsch dans l'est de la France. On distingue les cerises :
 à chair ferme : bigarreaux
 à chair molle : guignes
@@ -581,14 +635,52 @@
 à jus coloré : griottes, morelles (griotte du Nord...)
 à jus clair : amarelles (cerise de Montmorency...)
 De nombreuses variétés ont été développées à partir de ces deux espèces et sont cultivées pour leurs fruits. Une troisième classe de cerisiers cultivés est issue d'un hybride :
-Prunus ×gondouinii, le cerisier intermédiaire, issu de P. avium et P. cerasus a donné des variétés à fruits. Elles sont cultivées mais à moins grande échelle que leurs parents[7]. Cette espèce a reçu divers noms comme Prunus acida Dum, Cerasus regalis, P. avium ssp. regalis mais le nom le plus utilisé est Prunus ×gondouinii Rehd. C'est une espèce allotétraploïde (AAAF) qui a donné de nombreux cultivars (Cerise Impératrice Eugénie, Gros guin noir de Gironde, Maynard) divisés en fonction du fruit :
+Prunus ×gondouinii, le cerisier intermédiaire, issu de P. avium et P. cerasus a donné des variétés à fruits. Elles sont cultivées mais à moins grande échelle que leurs parents. Cette espèce a reçu divers noms comme Prunus acida Dum, Cerasus regalis, P. avium ssp. regalis mais le nom le plus utilisé est Prunus ×gondouinii Rehd. C'est une espèce allotétraploïde (AAAF) qui a donné de nombreux cultivars (Cerise Impératrice Eugénie, Gros guin noir de Gironde, Maynard) divisés en fonction du fruit :
 à jus coloré : cerises anglaises (duke cherries)
 à jus clair : cerises royales
 En Chine, le Prunus pseudocerasus, (yingtao 樱桃) le cerisier chinois, est cultivé pour ses fruits dans l'est et le nord de la Chine, depuis des siècles. Il donne des cerises acidulées.
 L’Amérique du Nord a donné le cerisier de Virginie (Prunus virginiana) qui est largement utilisé comme porte-greffe. Il existe de par le monde d'autres espèces donnant des fruits comestibles qui sont consommés localement.
-Variétés cultivées pour leurs fruits
-Variétés de Prunus avium
-La plupart des cultivars sont auto-incompatibles et réclament une pollinisation croisée pour être productifs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cerisier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cerisiers à fruits de table</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés cultivées pour leurs fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Variétés de Prunus avium</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La plupart des cultivars sont auto-incompatibles et réclament une pollinisation croisée pour être productifs.
 Bigarreaux : gros fruits à la chair ferme, sucrés
 Burlat
 Cœur de pigeon ou gros Cœurlet
@@ -605,102 +697,283 @@
 Noire à gros fruits
 Noire de Montreux
 Précoce de Rivers
-Rouge des Vosges
-Variétés de Prunus cerasus
-Ce sont des arbres plus petits que les variétés de P. avium, donnant des fruits rouges brillants. Ils sont en général auto-compatibles et s'hybrident entre eux.
+Rouge des Vosges</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cerisier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cerisiers à fruits de table</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés cultivées pour leurs fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Variétés de Prunus cerasus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ce sont des arbres plus petits que les variétés de P. avium, donnant des fruits rouges brillants. Ils sont en général auto-compatibles et s'hybrident entre eux.
 fruits à jus clair
 Cerisier de Montmorency
 Belle de Bavay
 Belle Magnifique
 fruits acides, à jus coloré
 Griotte de Champagne
-Griotte du Nord
-Culture des cerisiers à fruits
-La culture des cerisiers est très étroitement liée au terroir (sol, climat) et au type de porte-greffe utilisé[8].
+Griotte du Nord</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cerisier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cerisiers à fruits de table</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Culture des cerisiers à fruits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture des cerisiers est très étroitement liée au terroir (sol, climat) et au type de porte-greffe utilisé.
 semis de merisier et de cerisier Sainte-Lucie pour obtenir des porte-greffes.
 greffage (de préférence en fente vers la mi-septembre). Les porte-greffes utilisés sont le merisier sauvage pour les variétés à grande végétation, guignes et bigarreaux, et le Cerisier de Sainte Lucie pour les griottes et les cerises.
 formes : plein vent ou palmettes à la diable.
 taille : pas ou peu, suffisamment pour éliminer le bois mort. Lorsqu'on doit absolument tailler (pour l'émondage des merisiers de forêt par exemple), il est conseillé de le faire en plein mois d'août, période où il y a une descente de sève. Même si on est amené à couper d'assez grosses branches, l'expérience prouve que la cicatrisation se fait mieux en été bien qu'il puisse sembler aberrant de couper des branches pleines de feuilles.
 Il faut généralement compter quarante-cinq jours entre la floraison et la maturation des fruits.
-Autres modes de consommation
-Les feuilles et les fleurs de cerisiers sont parfois consommées dans des préparations et infusions, notamment au Japon.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cerisier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cerisier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cerisiers à fruits de table</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres modes de consommation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles et les fleurs de cerisiers sont parfois consommées dans des préparations et infusions, notamment au Japon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cerisier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Cerisiers ornementaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au Japon, le cerisier est surtout planté pour ses qualités ornementales. Son nom est sakura (ou zakura), et sa floraison est guettée dans de nombreuses régions. Les cerisiers du docteur Nagai Takashi sont célèbres à Nagasaki.
-Maladies
-Résistances naturelles
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, le cerisier est surtout planté pour ses qualités ornementales. Son nom est sakura (ou zakura), et sa floraison est guettée dans de nombreuses régions. Les cerisiers du docteur Nagai Takashi sont célèbres à Nagasaki.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cerisier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cerisiers ornementaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Résistances naturelles
 Le cerisier ne craint pas l'oïdium.
-Ravageurs
-Drosophila suzukii, une mouche des fruits dont la cerise
-Eriogaster lanestris, la laineuse du cerisier[4]
-Lomographa semiclarata, l'arpenteuse du cerisier[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cerisier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cerisiers ornementaux</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ravageurs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Drosophila suzukii, une mouche des fruits dont la cerise
+Eriogaster lanestris, la laineuse du cerisier
+Lomographa semiclarata, l'arpenteuse du cerisier
 Rhagoletis cerasi, la mouche de la cerise,
 Myzus cerasi, le puceron noir du cerisier,
 Rhopalosiphum padi, le puceron du merisier à grappes,
 Argyresthia pruniella, la teigne des fleurs de cerisier,
 Contariania virginianae, la cécidomyie du cerisier.
-Coleophora pruniella, le porte-case du cerisier[4]
-Sphinx drupiferarum, le sphinx du cerisier[4]
-Archips cerasivorana, la tordeuse du cerisier[4]
+Coleophora pruniella, le porte-case du cerisier
+Sphinx drupiferarum, le sphinx du cerisier
+Archips cerasivorana, la tordeuse du cerisier
 etc.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cerisier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cerisier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, le cerisier symbolise la bonne éducation[9].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le cerisier symbolise la bonne éducation.
 </t>
         </is>
       </c>
